--- a/Taken.xlsx
+++ b/Taken.xlsx
@@ -8,15 +8,13 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="40">
   <si>
     <t>Wie</t>
   </si>
@@ -42,41 +40,107 @@
     <t>Wouter</t>
   </si>
   <si>
-    <t>Elektro</t>
-  </si>
-  <si>
-    <t>Van alles</t>
-  </si>
-  <si>
-    <t>Solderen</t>
-  </si>
-  <si>
-    <t>Frame</t>
-  </si>
-  <si>
-    <t>Platen</t>
-  </si>
-  <si>
-    <t>MP3s</t>
-  </si>
-  <si>
-    <t>Pseudo-code</t>
-  </si>
-  <si>
-    <t>Leerdoelen</t>
-  </si>
-  <si>
-    <t>RFID-tags</t>
-  </si>
-  <si>
-    <t>Vriend: tekeningen op behuizing</t>
+    <t>Wanneer</t>
+  </si>
+  <si>
+    <t>Opmeten frame voor bestellen PVC-platen</t>
+  </si>
+  <si>
+    <t>Leerdoelen: vraag wat Sigi verwacht</t>
+  </si>
+  <si>
+    <t>Wat RFID-tags moeten doen: vraag wat Sigi wil</t>
+  </si>
+  <si>
+    <t>Elektro-backup</t>
+  </si>
+  <si>
+    <t>Vader Jacob</t>
+  </si>
+  <si>
+    <t>Mega Mindy</t>
+  </si>
+  <si>
+    <t>Paw Patrol</t>
+  </si>
+  <si>
+    <t>K3 - Waterval</t>
+  </si>
+  <si>
+    <t>Like me ?</t>
+  </si>
+  <si>
+    <t>Niels Destadbader ?</t>
+  </si>
+  <si>
+    <t>Altijd is Kortjakje ziek == Twinkel, twinkel kleine ster</t>
+  </si>
+  <si>
+    <t>Bob de Bouwer</t>
+  </si>
+  <si>
+    <t>Ik zag twee beren broodjes smeren</t>
+  </si>
+  <si>
+    <t>Samson en Marie</t>
+  </si>
+  <si>
+    <t>Snollebollekes ?</t>
+  </si>
+  <si>
+    <t>De wielen van de bus</t>
+  </si>
+  <si>
+    <t>Efteling - Carnaval festival</t>
+  </si>
+  <si>
+    <t>Für Elise</t>
+  </si>
+  <si>
+    <t>Bladmuziek zoeken voor &amp; noten uitschrijven (LENGTE+NOOTNAAM+OCTAAF:8e1,16f3, 1a2) van:</t>
+  </si>
+  <si>
+    <t>Toetsmodules solderen?</t>
+  </si>
+  <si>
+    <t>Exacte maten voor de platen bepalen</t>
+  </si>
+  <si>
+    <t>Vriend: tekeningen voor op platen maken</t>
+  </si>
+  <si>
+    <t>Namen inspreken van kleuren en spellen: vraag Isabelle; daarna eventueel MP3s nabewerken</t>
+  </si>
+  <si>
+    <t>Davy + Glenn</t>
+  </si>
+  <si>
+    <t>State diagrammen voor software: update</t>
+  </si>
+  <si>
+    <t>Elektro: moederbord, daarna software</t>
+  </si>
+  <si>
+    <t>Platen lijmen</t>
+  </si>
+  <si>
+    <t>Davy + Glenn?</t>
+  </si>
+  <si>
+    <t>Bak over de stopcontacten vastmaken: met haken?</t>
+  </si>
+  <si>
+    <t>Bevestiging aan de muur: ogen in muur + hangslot</t>
+  </si>
+  <si>
+    <t>Laten poedercoaten</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,6 +150,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -113,9 +185,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -410,19 +484,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="265" zoomScaleNormal="265" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="88.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1">
+    <row r="1" spans="1:3" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -430,107 +503,219 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2">
+        <v>44606</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2">
+        <v>44575</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
       <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="C4" s="2">
+        <v>44606</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>39</v>
+      </c>
+      <c r="C5" s="2">
+        <v>44575</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="2">
+        <v>44591</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="2">
+        <v>44562</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
         <v>6</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="2">
+        <v>44575</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" s="3" customFormat="1">
+      <c r="B15" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Taken.xlsx
+++ b/Taken.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="43">
   <si>
     <t>Wie</t>
   </si>
@@ -43,9 +43,6 @@
     <t>Wanneer</t>
   </si>
   <si>
-    <t>Opmeten frame voor bestellen PVC-platen</t>
-  </si>
-  <si>
     <t>Leerdoelen: vraag wat Sigi verwacht</t>
   </si>
   <si>
@@ -67,15 +64,6 @@
     <t>K3 - Waterval</t>
   </si>
   <si>
-    <t>Like me ?</t>
-  </si>
-  <si>
-    <t>Niels Destadbader ?</t>
-  </si>
-  <si>
-    <t>Altijd is Kortjakje ziek == Twinkel, twinkel kleine ster</t>
-  </si>
-  <si>
     <t>Bob de Bouwer</t>
   </si>
   <si>
@@ -134,6 +122,27 @@
   </si>
   <si>
     <t>Laten poedercoaten</t>
+  </si>
+  <si>
+    <t>Altijd is Kortjakje ziek, lijkt op Twinkel, twinkel kleine ster</t>
+  </si>
+  <si>
+    <t>Iets van Like me ?</t>
+  </si>
+  <si>
+    <t>Iets van Niels Destadbader ?</t>
+  </si>
+  <si>
+    <t>EftelingCarnavalFestival:d=4,o=6,b=225:c,p,a5,f5,2c,a5,f5,g5,8p,8c5,2c.5,8p,2p,2c,a#5,g5,2c,a#5,g5,1f5,1p,c,p,a5,f5,2c,a5,f5,g5,8p,8c5,2c.5,8p,2p,2c,a#5,g5,2c,a#5,g5,1f5,1p,c,p,a5,f5,2c,a5,f5,g5,8p,8c5,2c.5,8p,2p,2c,a#5,g5,2c,a#5,g5,1f5</t>
+  </si>
+  <si>
+    <t>Twinkle:d=4,o=5,b=80:32p,8c,8c,8g,8g,8a,8a,g,8f,8f,8e,8e,8d,8d,c,8g,8g,8f,8f,8e,8e,d,8g,8g,8f,8f,8e,8e,d,8c,8c,8g,8g,8a,8a,g</t>
+  </si>
+  <si>
+    <t>BeethovenFuerElise:d=4,o=6,b=70:16e,16d#,16e,16d#,16e,16b5,16d,16c,8a.5,16c5,16e5,16a5,8b.5,16e5,16g#5,16b5,8c.,16e5,16e,16d#,16e,16d#,16e,16b5,16d,16c,8a.5,16c5,16e5,16a5,8b.5,16e5,16c,16b5,8a.5,16b5,16c,16d,8e.,16g5,16f,16e,8d.,16f5,16e,16d,8c.,16e5,16d,16c,8b5,16e5,16e5,16e,16e5,16e,16e,16e5,16d#,16e,16d#,16e,16d#,16e,16d#,16e,16d#,16e,16d#,16e,16b5,16d,16c,8a.5,16c5,16e5,16a5,8b.5,16e5,16c,16b5,a5</t>
+  </si>
+  <si>
+    <t>BobDeBouwer:d=4,o=6,b=63:p,8a5,16b5,16c#,16b5,8g#5,16g#5,8a5,16c#,8b5,8p,8a5,16b5,16c#,16b5,8g#.5,8f#5,16c#,8b5,8p,8c#,16c#,16a5,8b.5,16g#5,16a5,8b5,8g#5,8p,8a5,16b5,16c#,16b5,8g#5,16g#5,16f#5,16g#5,8f#5,8e5,8p,8e.,16c#,8b5,8g#.5,8p,p,8e.,16c#,8b5,8g#5</t>
   </si>
 </sst>
 </file>
@@ -185,10 +194,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -484,15 +494,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="88.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1">
@@ -511,7 +524,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" s="2">
         <v>44606</v>
@@ -522,7 +535,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" s="2">
         <v>44575</v>
@@ -533,7 +546,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" s="2">
         <v>44606</v>
@@ -544,7 +557,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C5" s="2">
         <v>44575</v>
@@ -552,34 +565,34 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -587,7 +600,7 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -595,7 +608,7 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -603,7 +616,7 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C12" s="2">
         <v>44591</v>
@@ -614,7 +627,7 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C13" s="2">
         <v>44562</v>
@@ -625,93 +638,100 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C14" s="2">
         <v>44575</v>
       </c>
     </row>
-    <row r="15" spans="1:3" s="3" customFormat="1">
-      <c r="B15" s="3" t="s">
-        <v>9</v>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>2</v>
-      </c>
       <c r="B16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
       <c r="B17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
+    <row r="18" spans="2:4">
       <c r="B18" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="2:2">
+    <row r="19" spans="2:4">
       <c r="B19" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="2:2">
+    <row r="20" spans="2:4">
       <c r="B20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="21" spans="2:2">
-      <c r="B21" t="s">
+      <c r="D23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="B24" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="2:2">
-      <c r="B22" t="s">
+    <row r="25" spans="2:4">
+      <c r="B25" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="2:2">
-      <c r="B23" t="s">
+    <row r="26" spans="2:4">
+      <c r="B26" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="2:2">
-      <c r="B24" t="s">
+    <row r="27" spans="2:4">
+      <c r="B27" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="2:2">
-      <c r="B25" t="s">
+    <row r="28" spans="2:4">
+      <c r="B28" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="26" spans="2:2">
-      <c r="B26" t="s">
+      <c r="D28" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4">
+      <c r="B29" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="27" spans="2:2">
-      <c r="B27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2">
-      <c r="B28" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2">
-      <c r="B29" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2">
-      <c r="B30" t="s">
-        <v>26</v>
+      <c r="D29" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/Taken.xlsx
+++ b/Taken.xlsx
@@ -133,9 +133,6 @@
     <t>Iets van Niels Destadbader ?</t>
   </si>
   <si>
-    <t>EftelingCarnavalFestival:d=4,o=6,b=225:c,p,a5,f5,2c,a5,f5,g5,8p,8c5,2c.5,8p,2p,2c,a#5,g5,2c,a#5,g5,1f5,1p,c,p,a5,f5,2c,a5,f5,g5,8p,8c5,2c.5,8p,2p,2c,a#5,g5,2c,a#5,g5,1f5,1p,c,p,a5,f5,2c,a5,f5,g5,8p,8c5,2c.5,8p,2p,2c,a#5,g5,2c,a#5,g5,1f5</t>
-  </si>
-  <si>
     <t>Twinkle:d=4,o=5,b=80:32p,8c,8c,8g,8g,8a,8a,g,8f,8f,8e,8e,8d,8d,c,8g,8g,8f,8f,8e,8e,d,8g,8g,8f,8f,8e,8e,d,8c,8c,8g,8g,8a,8a,g</t>
   </si>
   <si>
@@ -143,6 +140,9 @@
   </si>
   <si>
     <t>BobDeBouwer:d=4,o=6,b=63:p,8a5,16b5,16c#,16b5,8g#5,16g#5,8a5,16c#,8b5,8p,8a5,16b5,16c#,16b5,8g#.5,8f#5,16c#,8b5,8p,8c#,16c#,16a5,8b.5,16g#5,16a5,8b5,8g#5,8p,8a5,16b5,16c#,16b5,8g#5,16g#5,16f#5,16g#5,8f#5,8e5,8p,8e.,16c#,8b5,8g#.5,8p,p,8e.,16c#,8b5,8g#5</t>
+  </si>
+  <si>
+    <t>EftelingCarnavalFestival:d=4,o=6,b=225:c,p,a5,f5,2c,a5,f5,g5,8p,8c5,2c.5,8p,2p,2c,a#5,g5,2c,a#5,g5,1f5</t>
   </si>
 </sst>
 </file>
@@ -497,14 +497,14 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="88.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -687,7 +687,7 @@
         <v>36</v>
       </c>
       <c r="D22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="2:4">
@@ -695,7 +695,7 @@
         <v>16</v>
       </c>
       <c r="D23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="2:4">
@@ -723,7 +723,7 @@
         <v>21</v>
       </c>
       <c r="D28" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="2:4">
@@ -731,7 +731,7 @@
         <v>22</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
